--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/cluster_features.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/cluster_features.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cluster 1_Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Cluster 3_Data" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Cluster 4_Data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Cluster 2_Data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster 1_Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster 3_Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster 4_Data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster 2_Data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -429,6 +429,1437 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Occu_6b</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EN_M2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>avg_Radius_M</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Valence_M2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>avg_EN_X</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>avg_Radius_X</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>avg_Valence_X</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>V_XO4</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>V_Na(1)O6</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>BT1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Min_BT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Entropy_18e</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BVSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.766</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1510.78</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="K2" t="n">
+        <v>17.639</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.20549855802</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.20549855802</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.973040304664166</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20.682</v>
+      </c>
+      <c r="P2" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.083984375</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.909000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1529.907</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18.171</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.19686928503</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.19686928503</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.978746830840956</v>
+      </c>
+      <c r="O3" t="n">
+        <v>91.033</v>
+      </c>
+      <c r="P3" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.015625</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.891</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1521.472</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.579</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.18124562293</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.18124562293</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.963322735093207</v>
+      </c>
+      <c r="O4" t="n">
+        <v>91.794</v>
+      </c>
+      <c r="P4" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.103515625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.818</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1534.161</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.958</v>
+      </c>
+      <c r="K5" t="n">
+        <v>16.349</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.16584009036</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.16584009036</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.947980057270099</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.240234375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.798999999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1524.772</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="K6" t="n">
+        <v>17.392</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.21651850972</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.21651850972</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.999020806846486</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.0546875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.813000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1533.603</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K7" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.2527798041</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.2527798041</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.02018561973817</v>
+      </c>
+      <c r="O7" t="n">
+        <v>48.649</v>
+      </c>
+      <c r="P7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.849609375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.967</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8.939</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1541.424</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17.663</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.18357173902</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.18357173902</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.966633704763286</v>
+      </c>
+      <c r="O8" t="n">
+        <v>99.617</v>
+      </c>
+      <c r="P8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.11328125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.169</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.933</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.958</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1546.945</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="K9" t="n">
+        <v>18.177</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.20355275896</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.20355275896</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.986561963660462</v>
+      </c>
+      <c r="O9" t="n">
+        <v>101.807</v>
+      </c>
+      <c r="P9" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.025390625</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8.968999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1549.246</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K10" t="n">
+        <v>18.204</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.20430185312</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.20430185312</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.986997214683359</v>
+      </c>
+      <c r="O10" t="n">
+        <v>101.807</v>
+      </c>
+      <c r="P10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.015625</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.867</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1551.854</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K11" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.19958076236</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.19958076236</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.982316381064775</v>
+      </c>
+      <c r="O11" t="n">
+        <v>101.807</v>
+      </c>
+      <c r="P11" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.044921875</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.833</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8.996</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1552.643</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="K12" t="n">
+        <v>18.078</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.20242586432</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.20242586432</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.9854531718287221</v>
+      </c>
+      <c r="O12" t="n">
+        <v>100.079</v>
+      </c>
+      <c r="P12" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.005859375</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.127</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9.005000000000001</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1553.69</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K13" t="n">
+        <v>17.666</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.18881483888</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.18881483888</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.971616060204156</v>
+      </c>
+      <c r="O13" t="n">
+        <v>99.379</v>
+      </c>
+      <c r="P13" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.0546875</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.106</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.733</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9.032999999999999</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1554.044</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="K14" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.19232372524</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.18073127809</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.960731232956613</v>
+      </c>
+      <c r="O14" t="n">
+        <v>94.90600000000001</v>
+      </c>
+      <c r="P14" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.064453125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8.815</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1530.666</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="K15" t="n">
+        <v>17.467</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.21774122685</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.21774122685</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.00022923622079</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.044921875</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8.927</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1537.372</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="K16" t="n">
+        <v>18.237</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.20724825128</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.20724825128</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.989739726428989</v>
+      </c>
+      <c r="O16" t="n">
+        <v>92.28700000000001</v>
+      </c>
+      <c r="P16" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.99609375</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1542.113</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="K17" t="n">
+        <v>18.199</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.20588172795</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.20588172795</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.988372849543685</v>
+      </c>
+      <c r="O17" t="n">
+        <v>87.286</v>
+      </c>
+      <c r="P17" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.005859375</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.963</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1534.126</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="K18" t="n">
+        <v>17.998</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.21709018032</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.21709018032</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.997090055578687</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.025390625</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.963</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8.808999999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1540.881</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="K19" t="n">
+        <v>18.531</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.22902368409</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.22902368409</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.012010082594</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.966796875</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.963</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8.797000000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1542.583</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="K20" t="n">
+        <v>18.913</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.23962937661</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.23962937661</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.02259805189965</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.91796875</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.736000000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1460.261</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="K21" t="n">
+        <v>17.339</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.17291077371</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.17291077371</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.9554281970973389</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.15234375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8.776</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1496.074</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="K22" t="n">
+        <v>17.956</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.19498266691</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.19498266691</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.977429923186581</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.083984375</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.927</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1543.741</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="K23" t="n">
+        <v>18.774</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.21595275417</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.21595275417</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.998432041790291</v>
+      </c>
+      <c r="O23" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="P23" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.947265625</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.927</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1556.372</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K24" t="n">
+        <v>19.488</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.22949651875</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.22949651875</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.01195756930954</v>
+      </c>
+      <c r="O24" t="n">
+        <v>86.684</v>
+      </c>
+      <c r="P24" t="n">
+        <v>225</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.869140625</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8.804</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1527.791</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="K25" t="n">
+        <v>17.319</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.20680515622</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.20680515622</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.989299843322741</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.09375</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.032</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8.792999999999999</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1523.113</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K26" t="n">
+        <v>17.787</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.267189638</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.196231722</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.97874243314801</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.103515625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1638,17 +3069,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1748,158 +3179,158 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.842</v>
+        <v>0.86</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
       <c r="H2" t="n">
-        <v>8.766</v>
+        <v>9.198</v>
       </c>
       <c r="I2" t="n">
-        <v>1510.78</v>
+        <v>1627.294</v>
       </c>
       <c r="J2" t="n">
-        <v>1.814</v>
+        <v>2.185</v>
       </c>
       <c r="K2" t="n">
-        <v>17.639</v>
+        <v>17.25</v>
       </c>
       <c r="L2" t="n">
-        <v>2.20549855802</v>
+        <v>2.218105859</v>
       </c>
       <c r="M2" t="n">
-        <v>2.20549855802</v>
+        <v>2.185296229</v>
       </c>
       <c r="N2" t="n">
-        <v>0.973040304664166</v>
+        <v>0.965296269853095</v>
       </c>
       <c r="O2" t="n">
-        <v>20.682</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.083984375</v>
+        <v>0.91796875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.86</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
       <c r="H3" t="n">
-        <v>8.909000000000001</v>
+        <v>9.199</v>
       </c>
       <c r="I3" t="n">
-        <v>1529.907</v>
+        <v>1646.702</v>
       </c>
       <c r="J3" t="n">
-        <v>1.818</v>
+        <v>2.387</v>
       </c>
       <c r="K3" t="n">
-        <v>18.171</v>
+        <v>17.789</v>
       </c>
       <c r="L3" t="n">
-        <v>2.19686928503</v>
+        <v>2.358237089</v>
       </c>
       <c r="M3" t="n">
-        <v>2.19686928503</v>
+        <v>2.235484019</v>
       </c>
       <c r="N3" t="n">
-        <v>0.978746830840956</v>
+        <v>1.01548408000574</v>
       </c>
       <c r="O3" t="n">
-        <v>91.033</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>26.5</v>
+        <v>300</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.015625</v>
+        <v>0.791015625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.845</v>
+        <v>0.86</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
       <c r="H4" t="n">
-        <v>8.891</v>
+        <v>9.199</v>
       </c>
       <c r="I4" t="n">
-        <v>1521.472</v>
+        <v>1663.997</v>
       </c>
       <c r="J4" t="n">
-        <v>1.816</v>
+        <v>2.205</v>
       </c>
       <c r="K4" t="n">
-        <v>17.579</v>
+        <v>18.481</v>
       </c>
       <c r="L4" t="n">
-        <v>2.18124562293</v>
+        <v>2.248438315</v>
       </c>
       <c r="M4" t="n">
-        <v>2.18124562293</v>
+        <v>2.248438315</v>
       </c>
       <c r="N4" t="n">
-        <v>0.963322735093207</v>
+        <v>1.02805639723024</v>
       </c>
       <c r="O4" t="n">
-        <v>91.794</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>26.5</v>
+        <v>620</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.103515625</v>
+        <v>0.80078125</v>
       </c>
     </row>
     <row r="5">
@@ -1916,34 +3347,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.102</v>
+        <v>2.185</v>
       </c>
       <c r="F5" t="n">
-        <v>0.335</v>
+        <v>0.392</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>8.818</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>1534.161</v>
+        <v>1597.497</v>
       </c>
       <c r="J5" t="n">
-        <v>1.958</v>
+        <v>2.267</v>
       </c>
       <c r="K5" t="n">
-        <v>16.349</v>
+        <v>17.181</v>
       </c>
       <c r="L5" t="n">
-        <v>2.16584009036</v>
+        <v>2.2131120095</v>
       </c>
       <c r="M5" t="n">
-        <v>2.16584009036</v>
+        <v>2.2131120095</v>
       </c>
       <c r="N5" t="n">
-        <v>0.947980057270099</v>
+        <v>0.995610765938268</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1952,12 +3383,12 @@
         <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.240234375</v>
+        <v>1.07421875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -1969,101 +3400,101 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.19</v>
+        <v>1.967</v>
       </c>
       <c r="F6" t="n">
-        <v>0.31</v>
+        <v>0.378</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="H6" t="n">
-        <v>8.798999999999999</v>
+        <v>9.089</v>
       </c>
       <c r="I6" t="n">
-        <v>1524.772</v>
+        <v>1645.473</v>
       </c>
       <c r="J6" t="n">
-        <v>1.891</v>
+        <v>2.09</v>
       </c>
       <c r="K6" t="n">
-        <v>17.392</v>
+        <v>19.73</v>
       </c>
       <c r="L6" t="n">
-        <v>2.21651850972</v>
+        <v>2.27573612364</v>
       </c>
       <c r="M6" t="n">
-        <v>2.21651850972</v>
+        <v>2.27573612364</v>
       </c>
       <c r="N6" t="n">
-        <v>0.999020806846486</v>
+        <v>1.06573607011472</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>84.155</v>
       </c>
       <c r="P6" t="n">
-        <v>19.5</v>
+        <v>349.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.0546875</v>
+        <v>0.68359375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="C7" t="n">
-        <v>0.86</v>
+        <v>0.862</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>2.19</v>
+        <v>2.058</v>
       </c>
       <c r="F7" t="n">
-        <v>0.31</v>
+        <v>0.349</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>4.57</v>
       </c>
       <c r="H7" t="n">
-        <v>8.813000000000001</v>
+        <v>8.983000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>1533.603</v>
+        <v>1598.08</v>
       </c>
       <c r="J7" t="n">
-        <v>1.789</v>
+        <v>1.654</v>
       </c>
       <c r="K7" t="n">
-        <v>19.47</v>
+        <v>19.569</v>
       </c>
       <c r="L7" t="n">
-        <v>2.2527798041</v>
+        <v>2.35441779319</v>
       </c>
       <c r="M7" t="n">
-        <v>2.2527798041</v>
+        <v>2.35441779319</v>
       </c>
       <c r="N7" t="n">
-        <v>1.02018561973817</v>
+        <v>1.00333236902021</v>
       </c>
       <c r="O7" t="n">
-        <v>48.649</v>
+        <v>91.417</v>
       </c>
       <c r="P7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.849609375</v>
+        <v>0.830078125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -2075,366 +3506,366 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.179</v>
+        <v>2.19</v>
       </c>
       <c r="F8" t="n">
-        <v>0.313</v>
+        <v>0.31</v>
       </c>
       <c r="G8" t="n">
-        <v>4.967</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>8.939</v>
+        <v>8.930999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>1541.424</v>
+        <v>1542.204</v>
       </c>
       <c r="J8" t="n">
-        <v>1.849</v>
+        <v>1.828</v>
       </c>
       <c r="K8" t="n">
-        <v>17.663</v>
+        <v>18.422</v>
       </c>
       <c r="L8" t="n">
-        <v>2.18357173902</v>
+        <v>2.20913654781</v>
       </c>
       <c r="M8" t="n">
-        <v>2.18357173902</v>
+        <v>2.20913654781</v>
       </c>
       <c r="N8" t="n">
-        <v>0.966633704763286</v>
+        <v>0.991625170045778</v>
       </c>
       <c r="O8" t="n">
-        <v>99.617</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.11328125</v>
+        <v>0.986328125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.47</v>
+        <v>0.674</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.885</v>
+        <v>0.86</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.169</v>
+        <v>2.063</v>
       </c>
       <c r="F9" t="n">
-        <v>0.316</v>
+        <v>0.347</v>
       </c>
       <c r="G9" t="n">
-        <v>4.933</v>
+        <v>4.587</v>
       </c>
       <c r="H9" t="n">
-        <v>8.958</v>
+        <v>9.095000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>1546.945</v>
+        <v>1649.58</v>
       </c>
       <c r="J9" t="n">
-        <v>1.841</v>
+        <v>1.952</v>
       </c>
       <c r="K9" t="n">
-        <v>18.177</v>
+        <v>20.509</v>
       </c>
       <c r="L9" t="n">
-        <v>2.20355275896</v>
+        <v>2.3027039452</v>
       </c>
       <c r="M9" t="n">
-        <v>2.20355275896</v>
+        <v>2.3027039452</v>
       </c>
       <c r="N9" t="n">
-        <v>0.986561963660462</v>
+        <v>1.0851116032581</v>
       </c>
       <c r="O9" t="n">
-        <v>101.807</v>
+        <v>73.837</v>
       </c>
       <c r="P9" t="n">
-        <v>25</v>
+        <v>221.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.025390625</v>
+        <v>0.64453125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.51</v>
+        <v>0.667</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="C10" t="n">
-        <v>0.885</v>
+        <v>0.774</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>2.158</v>
+        <v>2.16</v>
       </c>
       <c r="F10" t="n">
-        <v>0.319</v>
+        <v>0.55</v>
       </c>
       <c r="G10" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>8.968999999999999</v>
+        <v>9.118</v>
       </c>
       <c r="I10" t="n">
-        <v>1549.246</v>
+        <v>1630.286</v>
       </c>
       <c r="J10" t="n">
-        <v>1.855</v>
+        <v>2.71</v>
       </c>
       <c r="K10" t="n">
-        <v>18.204</v>
+        <v>16.274</v>
       </c>
       <c r="L10" t="n">
-        <v>2.20430185312</v>
+        <v>2.24657054121</v>
       </c>
       <c r="M10" t="n">
-        <v>2.20430185312</v>
+        <v>2.2419871936</v>
       </c>
       <c r="N10" t="n">
-        <v>0.986997214683359</v>
+        <v>1.02198738709959</v>
       </c>
       <c r="O10" t="n">
-        <v>101.807</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>25</v>
+        <v>20.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.015625</v>
+        <v>1.2109375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.885</v>
+        <v>0.86</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.148</v>
+        <v>1.9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.322</v>
+        <v>0.4</v>
       </c>
       <c r="G11" t="n">
-        <v>4.867</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>8.98</v>
+        <v>9.186</v>
       </c>
       <c r="I11" t="n">
-        <v>1551.854</v>
+        <v>1621.297</v>
       </c>
       <c r="J11" t="n">
-        <v>1.85</v>
+        <v>2.177</v>
       </c>
       <c r="K11" t="n">
-        <v>17.81</v>
+        <v>17.222</v>
       </c>
       <c r="L11" t="n">
-        <v>2.19958076236</v>
+        <v>2.2169347703</v>
       </c>
       <c r="M11" t="n">
-        <v>2.19958076236</v>
+        <v>2.18449242726</v>
       </c>
       <c r="N11" t="n">
-        <v>0.982316381064775</v>
+        <v>0.964492426920063</v>
       </c>
       <c r="O11" t="n">
-        <v>101.807</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.044921875</v>
+        <v>0.91796875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.885</v>
+        <v>0.86</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2.137</v>
+        <v>1.9</v>
       </c>
       <c r="F12" t="n">
-        <v>0.325</v>
+        <v>0.4</v>
       </c>
       <c r="G12" t="n">
-        <v>4.833</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>8.996</v>
+        <v>9.193</v>
       </c>
       <c r="I12" t="n">
-        <v>1552.643</v>
+        <v>1631.307</v>
       </c>
       <c r="J12" t="n">
-        <v>1.891</v>
+        <v>2.187</v>
       </c>
       <c r="K12" t="n">
-        <v>18.078</v>
+        <v>17.444</v>
       </c>
       <c r="L12" t="n">
-        <v>2.20242586432</v>
+        <v>2.22099050616</v>
       </c>
       <c r="M12" t="n">
-        <v>2.20242586432</v>
+        <v>2.20142020187</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9854531718287221</v>
+        <v>0.981420181829353</v>
       </c>
       <c r="O12" t="n">
-        <v>100.079</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>25</v>
+        <v>129.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.005859375</v>
+        <v>0.908203125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.885</v>
+        <v>0.745</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.127</v>
+        <v>2.18</v>
       </c>
       <c r="F13" t="n">
-        <v>0.328</v>
+        <v>0.475</v>
       </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>9.005000000000001</v>
+        <v>8.805999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>1553.69</v>
+        <v>1493.499</v>
       </c>
       <c r="J13" t="n">
-        <v>1.88</v>
+        <v>2.369</v>
       </c>
       <c r="K13" t="n">
-        <v>17.666</v>
+        <v>14.991</v>
       </c>
       <c r="L13" t="n">
-        <v>2.18881483888</v>
+        <v>2.14735578476</v>
       </c>
       <c r="M13" t="n">
-        <v>2.18881483888</v>
+        <v>2.14735578476</v>
       </c>
       <c r="N13" t="n">
-        <v>0.971616060204156</v>
+        <v>0.937999318211602</v>
       </c>
       <c r="O13" t="n">
-        <v>99.379</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.0546875</v>
+        <v>1.30859375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.72</v>
+        <v>0.36</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.885</v>
+        <v>0.86</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.106</v>
+        <v>1.986</v>
       </c>
       <c r="F14" t="n">
-        <v>0.334</v>
+        <v>0.371</v>
       </c>
       <c r="G14" t="n">
-        <v>4.733</v>
+        <v>4.32</v>
       </c>
       <c r="H14" t="n">
-        <v>9.032999999999999</v>
+        <v>9.068</v>
       </c>
       <c r="I14" t="n">
-        <v>1554.044</v>
+        <v>1636.454</v>
       </c>
       <c r="J14" t="n">
-        <v>1.919</v>
+        <v>2.06</v>
       </c>
       <c r="K14" t="n">
-        <v>17.31</v>
+        <v>19.937</v>
       </c>
       <c r="L14" t="n">
-        <v>2.19232372524</v>
+        <v>2.27628407395</v>
       </c>
       <c r="M14" t="n">
-        <v>2.18073127809</v>
+        <v>2.27628407395</v>
       </c>
       <c r="N14" t="n">
-        <v>0.960731232956613</v>
+        <v>1.06628413942655</v>
       </c>
       <c r="O14" t="n">
         <v>94.90600000000001</v>
       </c>
       <c r="P14" t="n">
-        <v>25</v>
+        <v>169.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.064453125</v>
+        <v>0.673828125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -2446,149 +3877,149 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.19</v>
+        <v>1.976</v>
       </c>
       <c r="F15" t="n">
-        <v>0.31</v>
+        <v>0.375</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>4.283</v>
       </c>
       <c r="H15" t="n">
-        <v>8.815</v>
+        <v>9.079000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>1530.666</v>
+        <v>1639.284</v>
       </c>
       <c r="J15" t="n">
-        <v>1.858</v>
+        <v>2.068</v>
       </c>
       <c r="K15" t="n">
-        <v>17.467</v>
+        <v>19.898</v>
       </c>
       <c r="L15" t="n">
-        <v>2.21774122685</v>
+        <v>2.27263280499</v>
       </c>
       <c r="M15" t="n">
-        <v>2.21774122685</v>
+        <v>2.27263280499</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00022923622079</v>
+        <v>1.06263277698229</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>89.157</v>
       </c>
       <c r="P15" t="n">
-        <v>25</v>
+        <v>169.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.044921875</v>
+        <v>0.68359375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.92</v>
+        <v>0.36</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.885</v>
+        <v>0.86</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2.19</v>
+        <v>1.967</v>
       </c>
       <c r="F16" t="n">
-        <v>0.31</v>
+        <v>0.378</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>4.248</v>
       </c>
       <c r="H16" t="n">
-        <v>8.927</v>
+        <v>9.084</v>
       </c>
       <c r="I16" t="n">
-        <v>1537.372</v>
+        <v>1638.517</v>
       </c>
       <c r="J16" t="n">
-        <v>1.819</v>
+        <v>2.081</v>
       </c>
       <c r="K16" t="n">
-        <v>18.237</v>
+        <v>19.647</v>
       </c>
       <c r="L16" t="n">
-        <v>2.20724825128</v>
+        <v>2.2723911021</v>
       </c>
       <c r="M16" t="n">
-        <v>2.20724825128</v>
+        <v>2.2723911021</v>
       </c>
       <c r="N16" t="n">
-        <v>0.989739726428989</v>
+        <v>1.06239104870037</v>
       </c>
       <c r="O16" t="n">
-        <v>92.28700000000001</v>
+        <v>84.64400000000001</v>
       </c>
       <c r="P16" t="n">
-        <v>25</v>
+        <v>169.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.99609375</v>
+        <v>0.693359375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.79</v>
+        <v>0.49</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.885</v>
+        <v>0.86</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.19</v>
+        <v>1.956</v>
       </c>
       <c r="F17" t="n">
-        <v>0.31</v>
+        <v>0.381</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>4.21</v>
       </c>
       <c r="H17" t="n">
-        <v>8.949999999999999</v>
+        <v>9.097</v>
       </c>
       <c r="I17" t="n">
-        <v>1542.113</v>
+        <v>1625.437</v>
       </c>
       <c r="J17" t="n">
-        <v>1.821</v>
+        <v>2.087</v>
       </c>
       <c r="K17" t="n">
-        <v>18.199</v>
+        <v>18.876</v>
       </c>
       <c r="L17" t="n">
-        <v>2.20588172795</v>
+        <v>2.25058929396</v>
       </c>
       <c r="M17" t="n">
-        <v>2.20588172795</v>
+        <v>2.25058929396</v>
       </c>
       <c r="N17" t="n">
-        <v>0.988372849543685</v>
+        <v>1.0335293567313</v>
       </c>
       <c r="O17" t="n">
-        <v>87.286</v>
+        <v>80.157</v>
       </c>
       <c r="P17" t="n">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.005859375</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="18">
@@ -2614,34 +4045,34 @@
         <v>4.963</v>
       </c>
       <c r="H18" t="n">
-        <v>8.82</v>
+        <v>8.789</v>
       </c>
       <c r="I18" t="n">
-        <v>1534.126</v>
+        <v>1546.226</v>
       </c>
       <c r="J18" t="n">
-        <v>1.824</v>
+        <v>1.797</v>
       </c>
       <c r="K18" t="n">
-        <v>17.998</v>
+        <v>19.287</v>
       </c>
       <c r="L18" t="n">
-        <v>2.21709018032</v>
+        <v>2.24863669637</v>
       </c>
       <c r="M18" t="n">
-        <v>2.21709018032</v>
+        <v>2.24863669637</v>
       </c>
       <c r="N18" t="n">
-        <v>0.997090055578687</v>
+        <v>1.03108888029296</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>25</v>
+        <v>690</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.025390625</v>
+        <v>0.87890625</v>
       </c>
     </row>
     <row r="19">
@@ -2652,54 +4083,54 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.178</v>
+        <v>2.19</v>
       </c>
       <c r="F19" t="n">
-        <v>0.313</v>
+        <v>0.31</v>
       </c>
       <c r="G19" t="n">
-        <v>4.963</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>8.808999999999999</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>1540.881</v>
+        <v>1441.833</v>
       </c>
       <c r="J19" t="n">
-        <v>1.812</v>
+        <v>1.969</v>
       </c>
       <c r="K19" t="n">
-        <v>18.531</v>
+        <v>17.223</v>
       </c>
       <c r="L19" t="n">
-        <v>2.22902368409</v>
+        <v>2.34773869069</v>
       </c>
       <c r="M19" t="n">
-        <v>2.22902368409</v>
+        <v>2.3106522407</v>
       </c>
       <c r="N19" t="n">
-        <v>1.012010082594</v>
+        <v>1.09065236432933</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>270</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.966796875</v>
+        <v>0.908203125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0.402</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -2711,96 +4142,96 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.178</v>
+        <v>1.99</v>
       </c>
       <c r="F20" t="n">
-        <v>0.313</v>
+        <v>0.37</v>
       </c>
       <c r="G20" t="n">
-        <v>4.963</v>
+        <v>4.333</v>
       </c>
       <c r="H20" t="n">
-        <v>8.797000000000001</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>1542.583</v>
+        <v>1628.805</v>
       </c>
       <c r="J20" t="n">
-        <v>1.801</v>
+        <v>2.008</v>
       </c>
       <c r="K20" t="n">
-        <v>18.913</v>
+        <v>20.199</v>
       </c>
       <c r="L20" t="n">
-        <v>2.23962937661</v>
+        <v>2.25481248554</v>
       </c>
       <c r="M20" t="n">
-        <v>2.23962937661</v>
+        <v>2.25481248554</v>
       </c>
       <c r="N20" t="n">
-        <v>1.02259805189965</v>
+        <v>1.04481260272387</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>98.614</v>
       </c>
       <c r="P20" t="n">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.91796875</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.19</v>
+        <v>1.99</v>
       </c>
       <c r="F21" t="n">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="H21" t="n">
-        <v>8.736000000000001</v>
+        <v>9.032</v>
       </c>
       <c r="I21" t="n">
-        <v>1460.261</v>
+        <v>1625.712</v>
       </c>
       <c r="J21" t="n">
-        <v>1.824</v>
+        <v>1.928</v>
       </c>
       <c r="K21" t="n">
-        <v>17.339</v>
+        <v>20.116</v>
       </c>
       <c r="L21" t="n">
-        <v>2.17291077371</v>
+        <v>2.25250082883</v>
       </c>
       <c r="M21" t="n">
-        <v>2.17291077371</v>
+        <v>2.25250082883</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9554281970973389</v>
+        <v>1.04250092567548</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>94.90600000000001</v>
       </c>
       <c r="P21" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.15234375</v>
+        <v>0.72265625</v>
       </c>
     </row>
     <row r="22">
@@ -2808,66 +4239,66 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="F22" t="n">
-        <v>0.31</v>
+        <v>0.475</v>
       </c>
       <c r="G22" t="n">
         <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>8.776</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>1496.074</v>
+        <v>1676.247</v>
       </c>
       <c r="J22" t="n">
-        <v>1.821</v>
+        <v>2.364</v>
       </c>
       <c r="K22" t="n">
-        <v>17.956</v>
+        <v>17.024</v>
       </c>
       <c r="L22" t="n">
-        <v>2.19498266691</v>
+        <v>2.21853953156</v>
       </c>
       <c r="M22" t="n">
-        <v>2.19498266691</v>
+        <v>2.20950253103</v>
       </c>
       <c r="N22" t="n">
-        <v>0.977429923186581</v>
+        <v>0.989502555586412</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.083984375</v>
+        <v>1.09375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.988</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="C23" t="n">
-        <v>0.885</v>
+        <v>0.835</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
         <v>2.19</v>
@@ -2879,201 +4310,42 @@
         <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>8.927</v>
+        <v>8.988</v>
       </c>
       <c r="I23" t="n">
-        <v>1543.741</v>
+        <v>1580.702</v>
       </c>
       <c r="J23" t="n">
-        <v>1.801</v>
+        <v>1.817</v>
       </c>
       <c r="K23" t="n">
-        <v>18.774</v>
+        <v>19.696</v>
       </c>
       <c r="L23" t="n">
-        <v>2.21595275417</v>
+        <v>2.306014538</v>
       </c>
       <c r="M23" t="n">
-        <v>2.21595275417</v>
+        <v>2.239806066</v>
       </c>
       <c r="N23" t="n">
-        <v>0.998432041790291</v>
+        <v>1.01980619670403</v>
       </c>
       <c r="O23" t="n">
-        <v>94.8</v>
+        <v>100.955</v>
       </c>
       <c r="P23" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.947265625</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>0.799</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>8.927</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1556.372</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="K24" t="n">
-        <v>19.488</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.22949651875</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.22949651875</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.01195756930954</v>
-      </c>
-      <c r="O24" t="n">
-        <v>86.684</v>
-      </c>
-      <c r="P24" t="n">
-        <v>225</v>
-      </c>
-      <c r="Q24" t="n">
         <v>0.869140625</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5</v>
-      </c>
-      <c r="H25" t="n">
-        <v>8.804</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1527.791</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="K25" t="n">
-        <v>17.319</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.20680515622</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2.20680515622</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.989299843322741</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.09375</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2.189</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5.032</v>
-      </c>
-      <c r="H26" t="n">
-        <v>8.792999999999999</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1523.113</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K26" t="n">
-        <v>17.787</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.267189638</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2.196231722</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.97874243314801</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.103515625</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4076,1279 +5348,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Occu_6b</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>EN_M2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>avg_Radius_M</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Valence_M2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>avg_EN_X</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>avg_Radius_X</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>avg_Valence_X</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>V_XO4</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>V_Na(1)O6</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>BT1</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Min_BT</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Entropy_18e</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>BVSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.198</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1627.294</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.185</v>
-      </c>
-      <c r="K2" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.218105859</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.185296229</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.965296269853095</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.91796875</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9.199</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1646.702</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.387</v>
-      </c>
-      <c r="K3" t="n">
-        <v>17.789</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.358237089</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.235484019</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.01548408000574</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.791015625</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9.199</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1663.997</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.205</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18.481</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.248438315</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.248438315</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.02805639723024</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>620</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.80078125</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.185</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1597.497</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.267</v>
-      </c>
-      <c r="K5" t="n">
-        <v>17.181</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.2131120095</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.2131120095</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.995610765938268</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.07421875</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.967</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9.089</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1645.473</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="K6" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.27573612364</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.27573612364</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.06573607011472</v>
-      </c>
-      <c r="O6" t="n">
-        <v>84.155</v>
-      </c>
-      <c r="P6" t="n">
-        <v>349.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.68359375</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.058</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8.983000000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1598.08</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.654</v>
-      </c>
-      <c r="K7" t="n">
-        <v>19.569</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.35441779319</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.35441779319</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.00333236902021</v>
-      </c>
-      <c r="O7" t="n">
-        <v>91.417</v>
-      </c>
-      <c r="P7" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.830078125</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8.930999999999999</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1542.204</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.828</v>
-      </c>
-      <c r="K8" t="n">
-        <v>18.422</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.20913654781</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.20913654781</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.991625170045778</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.986328125</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.674</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.063</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.587</v>
-      </c>
-      <c r="H9" t="n">
-        <v>9.095000000000001</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1649.58</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.952</v>
-      </c>
-      <c r="K9" t="n">
-        <v>20.509</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.3027039452</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.3027039452</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.0851116032581</v>
-      </c>
-      <c r="O9" t="n">
-        <v>73.837</v>
-      </c>
-      <c r="P9" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.64453125</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.774</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9.118</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1630.286</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="K10" t="n">
-        <v>16.274</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.24657054121</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.2419871936</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.02198738709959</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.2109375</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9.186</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1621.297</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.177</v>
-      </c>
-      <c r="K11" t="n">
-        <v>17.222</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.2169347703</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.18449242726</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.964492426920063</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.91796875</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9.193</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1631.307</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.187</v>
-      </c>
-      <c r="K12" t="n">
-        <v>17.444</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.22099050616</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2.20142020187</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.981420181829353</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.908203125</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8.805999999999999</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1493.499</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.369</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14.991</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.14735578476</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.14735578476</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.937999318211602</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.30859375</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.986</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.371</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9.068</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1636.454</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="K14" t="n">
-        <v>19.937</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.27628407395</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2.27628407395</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.06628413942655</v>
-      </c>
-      <c r="O14" t="n">
-        <v>94.90600000000001</v>
-      </c>
-      <c r="P14" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.673828125</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.976</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4.283</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9.079000000000001</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1639.284</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.068</v>
-      </c>
-      <c r="K15" t="n">
-        <v>19.898</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.27263280499</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2.27263280499</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.06263277698229</v>
-      </c>
-      <c r="O15" t="n">
-        <v>89.157</v>
-      </c>
-      <c r="P15" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.68359375</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.967</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4.248</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9.084</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1638.517</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.081</v>
-      </c>
-      <c r="K16" t="n">
-        <v>19.647</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.2723911021</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2.2723911021</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.06239104870037</v>
-      </c>
-      <c r="O16" t="n">
-        <v>84.64400000000001</v>
-      </c>
-      <c r="P16" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.693359375</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.956</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9.097</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1625.437</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.087</v>
-      </c>
-      <c r="K17" t="n">
-        <v>18.876</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.25058929396</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2.25058929396</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.0335293567313</v>
-      </c>
-      <c r="O17" t="n">
-        <v>80.157</v>
-      </c>
-      <c r="P17" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.78125</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.178</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4.963</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8.789</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1546.226</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.797</v>
-      </c>
-      <c r="K18" t="n">
-        <v>19.287</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.24863669637</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2.24863669637</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.03108888029296</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>690</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.87890625</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8.566000000000001</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1441.833</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.969</v>
-      </c>
-      <c r="K19" t="n">
-        <v>17.223</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.34773869069</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2.3106522407</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.09065236432933</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>800</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.908203125</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0.402</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4.333</v>
-      </c>
-      <c r="H20" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1628.805</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.008</v>
-      </c>
-      <c r="K20" t="n">
-        <v>20.199</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.25481248554</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2.25481248554</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.04481260272387</v>
-      </c>
-      <c r="O20" t="n">
-        <v>98.614</v>
-      </c>
-      <c r="P20" t="n">
-        <v>250</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.703125</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G21" t="n">
-        <v>4.333</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9.032</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1625.712</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="K21" t="n">
-        <v>20.116</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.25250082883</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2.25250082883</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.04250092567548</v>
-      </c>
-      <c r="O21" t="n">
-        <v>94.90600000000001</v>
-      </c>
-      <c r="P21" t="n">
-        <v>250</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.72265625</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5</v>
-      </c>
-      <c r="H22" t="n">
-        <v>9.151999999999999</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1676.247</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.364</v>
-      </c>
-      <c r="K22" t="n">
-        <v>17.024</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.21853953156</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2.20950253103</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.989502555586412</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.09375</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>0.5580000000000001</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.835</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G23" t="n">
-        <v>5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>8.988</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1580.702</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="K23" t="n">
-        <v>19.696</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.306014538</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2.239806066</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.01980619670403</v>
-      </c>
-      <c r="O23" t="n">
-        <v>100.955</v>
-      </c>
-      <c r="P23" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.869140625</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5400,10 +5400,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9405238095238098</v>
+        <v>0.8278800000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1227695479537247</v>
+        <v>0.2111094344962663</v>
       </c>
     </row>
     <row r="3">
@@ -5418,10 +5418,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.729523809523809</v>
+        <v>0.2224</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2848065341679539</v>
+        <v>0.5224643528509865</v>
       </c>
     </row>
     <row r="4">
@@ -5436,10 +5436,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.763952380952381</v>
+        <v>0.8672799999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04177855453516338</v>
+        <v>0.01837008437650738</v>
       </c>
     </row>
     <row r="5">
@@ -5454,10 +5454,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.428571428571428</v>
+        <v>0.64</v>
       </c>
       <c r="D5" t="n">
-        <v>0.870139561876632</v>
+        <v>1.496662954709576</v>
       </c>
     </row>
     <row r="6">
@@ -5472,10 +5472,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.19</v>
+        <v>2.172759999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>4.550560269027492e-16</v>
+        <v>0.02733325203239943</v>
       </c>
     </row>
     <row r="7">
@@ -5490,10 +5490,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3099999999999999</v>
+        <v>0.3151599999999998</v>
       </c>
       <c r="D7" t="n">
-        <v>1.137640067256873e-16</v>
+        <v>0.007760369407014941</v>
       </c>
     </row>
     <row r="8">
@@ -5508,10 +5508,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4.958159999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.07466909222250757</v>
       </c>
     </row>
     <row r="9">
@@ -5526,10 +5526,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.631047619047619</v>
+        <v>8.878279999999998</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1383262361920096</v>
+        <v>0.08778122426426584</v>
       </c>
     </row>
     <row r="10">
@@ -5544,10 +5544,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1408.545428571428</v>
+        <v>1533.58536</v>
       </c>
       <c r="D10" t="n">
-        <v>52.8900275312572</v>
+        <v>20.95874862454024</v>
       </c>
     </row>
     <row r="11">
@@ -5562,10 +5562,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.841285714285714</v>
+        <v>1.84028</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06877001007499045</v>
+        <v>0.04160881316900703</v>
       </c>
     </row>
     <row r="12">
@@ -5580,10 +5580,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15.84161904761905</v>
+        <v>17.98064</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6583147785209195</v>
+        <v>0.6969203613039298</v>
       </c>
     </row>
     <row r="13">
@@ -5598,10 +5598,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.125724882020476</v>
+        <v>2.207891014676799</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02887907601037555</v>
+        <v>0.02336552701282851</v>
       </c>
     </row>
     <row r="14">
@@ -5616,10 +5616,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.119302562213334</v>
+        <v>2.2045890001508</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01749629379830865</v>
+        <v>0.0203562942073997</v>
       </c>
     </row>
     <row r="15">
@@ -5634,10 +5634,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8903021090498695</v>
+        <v>0.9857574437493903</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01813219015148954</v>
+        <v>0.01937966681532481</v>
       </c>
     </row>
     <row r="16">
@@ -5652,10 +5652,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>60.29076190476191</v>
+        <v>52.50468</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93941195486234</v>
+        <v>47.05610812168809</v>
       </c>
     </row>
     <row r="17">
@@ -5670,10 +5670,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24.45238095238095</v>
+        <v>64.08</v>
       </c>
       <c r="D17" t="n">
-        <v>1.650036074641718</v>
+        <v>108.734929990321</v>
       </c>
     </row>
     <row r="18">
@@ -5688,10 +5688,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.371837797619048</v>
+        <v>1.03515625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1308600690724308</v>
+        <v>0.08504134425529382</v>
       </c>
     </row>
     <row r="19">
@@ -5706,10 +5706,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8278800000000001</v>
+        <v>0.9405238095238098</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2111094344962663</v>
+        <v>0.1227695479537247</v>
       </c>
     </row>
     <row r="20">
@@ -5724,10 +5724,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2224</v>
+        <v>1.729523809523809</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5224643528509865</v>
+        <v>0.2848065341679539</v>
       </c>
     </row>
     <row r="21">
@@ -5742,10 +5742,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8672799999999999</v>
+        <v>0.763952380952381</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01837008437650738</v>
+        <v>0.04177855453516338</v>
       </c>
     </row>
     <row r="22">
@@ -5760,10 +5760,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.64</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="D22" t="n">
-        <v>1.496662954709576</v>
+        <v>0.870139561876632</v>
       </c>
     </row>
     <row r="23">
@@ -5778,10 +5778,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.172759999999999</v>
+        <v>2.19</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02733325203239943</v>
+        <v>4.550560269027492e-16</v>
       </c>
     </row>
     <row r="24">
@@ -5796,10 +5796,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3151599999999998</v>
+        <v>0.3099999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.007760369407014941</v>
+        <v>1.137640067256873e-16</v>
       </c>
     </row>
     <row r="25">
@@ -5814,10 +5814,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4.958159999999999</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07466909222250757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.878279999999998</v>
+        <v>8.631047619047619</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08778122426426584</v>
+        <v>0.1383262361920096</v>
       </c>
     </row>
     <row r="27">
@@ -5850,10 +5850,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1533.58536</v>
+        <v>1408.545428571428</v>
       </c>
       <c r="D27" t="n">
-        <v>20.95874862454024</v>
+        <v>52.8900275312572</v>
       </c>
     </row>
     <row r="28">
@@ -5868,10 +5868,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.84028</v>
+        <v>1.841285714285714</v>
       </c>
       <c r="D28" t="n">
-        <v>0.04160881316900703</v>
+        <v>0.06877001007499045</v>
       </c>
     </row>
     <row r="29">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17.98064</v>
+        <v>15.84161904761905</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6969203613039298</v>
+        <v>0.6583147785209195</v>
       </c>
     </row>
     <row r="30">
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.207891014676799</v>
+        <v>2.125724882020476</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02336552701282851</v>
+        <v>0.02887907601037555</v>
       </c>
     </row>
     <row r="31">
@@ -5922,10 +5922,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.2045890001508</v>
+        <v>2.119302562213334</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0203562942073997</v>
+        <v>0.01749629379830865</v>
       </c>
     </row>
     <row r="32">
@@ -5940,10 +5940,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9857574437493903</v>
+        <v>0.8903021090498695</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01937966681532481</v>
+        <v>0.01813219015148954</v>
       </c>
     </row>
     <row r="33">
@@ -5958,10 +5958,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>52.50468</v>
+        <v>60.29076190476191</v>
       </c>
       <c r="D33" t="n">
-        <v>47.05610812168809</v>
+        <v>38.93941195486234</v>
       </c>
     </row>
     <row r="34">
@@ -5976,10 +5976,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>64.08</v>
+        <v>24.45238095238095</v>
       </c>
       <c r="D34" t="n">
-        <v>108.734929990321</v>
+        <v>1.650036074641718</v>
       </c>
     </row>
     <row r="35">
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.03515625</v>
+        <v>1.371837797619048</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08504134425529382</v>
+        <v>0.1308600690724308</v>
       </c>
     </row>
     <row r="36">
@@ -6012,10 +6012,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9255882352941176</v>
+        <v>0.6943181818181818</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1082226055542056</v>
+        <v>0.316156890884383</v>
       </c>
     </row>
     <row r="37">
@@ -6030,10 +6030,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.2190909090909091</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.5833965333728982</v>
       </c>
     </row>
     <row r="38">
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.7567647058823528</v>
+        <v>0.8495909090909088</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0232473907454275</v>
+        <v>0.0311611160184476</v>
       </c>
     </row>
     <row r="39">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1.677454265800655</v>
       </c>
     </row>
     <row r="40">
@@ -6084,10 +6084,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.189941176470589</v>
+        <v>2.041181818181818</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0002425356250363063</v>
+        <v>0.1174566328738425</v>
       </c>
     </row>
     <row r="41">
@@ -6102,10 +6102,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.3109999999999999</v>
+        <v>0.3842727272727272</v>
       </c>
       <c r="D41" t="n">
-        <v>0.004123105625617665</v>
+        <v>0.05783653633357495</v>
       </c>
     </row>
     <row r="42">
@@ -6120,10 +6120,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4.549863636363636</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.5125802418441471</v>
       </c>
     </row>
     <row r="43">
@@ -6138,10 +6138,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8.586470588235294</v>
+        <v>9.038727272727272</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1363942436684276</v>
+        <v>0.157130574096887</v>
       </c>
     </row>
     <row r="44">
@@ -6156,10 +6156,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1397.164058823529</v>
+        <v>1608.474227272727</v>
       </c>
       <c r="D44" t="n">
-        <v>36.86423637224595</v>
+        <v>56.73644030236636</v>
       </c>
     </row>
     <row r="45">
@@ -6174,10 +6174,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.793294117647059</v>
+        <v>2.099545454545455</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0422503915749345</v>
+        <v>0.2371781984826975</v>
       </c>
     </row>
     <row r="46">
@@ -6192,10 +6192,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>16.40958823529412</v>
+        <v>18.48931818181818</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5000720021686286</v>
+        <v>1.501642604945336</v>
       </c>
     </row>
     <row r="47">
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.134234634775294</v>
+        <v>2.259630878670909</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01975816083621755</v>
+        <v>0.05162447220628688</v>
       </c>
     </row>
     <row r="48">
@@ -6228,10 +6228,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.131571642039412</v>
+        <v>2.24488130515</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02197548028388662</v>
+        <v>0.04660216378899112</v>
       </c>
     </row>
     <row r="49">
@@ -6246,10 +6246,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9087437759834698</v>
+        <v>1.022697858485425</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02113073412388175</v>
+        <v>0.04101738239744516</v>
       </c>
     </row>
     <row r="50">
@@ -6264,10 +6264,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>31.4484705882353</v>
+        <v>40.57945454545455</v>
       </c>
       <c r="D50" t="n">
-        <v>43.94499534235617</v>
+        <v>45.8431385131508</v>
       </c>
     </row>
     <row r="51">
@@ -6282,10 +6282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>251.0882352941177</v>
+        <v>200.0454545454545</v>
       </c>
       <c r="D51" t="n">
-        <v>295.5658891904497</v>
+        <v>230.8140309494136</v>
       </c>
     </row>
     <row r="52">
@@ -6300,10 +6300,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.336741727941176</v>
+        <v>0.8673650568181818</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1021244846912989</v>
+        <v>0.1801357039213181</v>
       </c>
     </row>
     <row r="53">
@@ -6318,10 +6318,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.6943181818181818</v>
+        <v>0.9255882352941176</v>
       </c>
       <c r="D53" t="n">
-        <v>0.316156890884383</v>
+        <v>0.1082226055542056</v>
       </c>
     </row>
     <row r="54">
@@ -6336,10 +6336,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.2190909090909091</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5833965333728982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -6354,10 +6354,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.8495909090909088</v>
+        <v>0.7567647058823528</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0311611160184476</v>
+        <v>0.0232473907454275</v>
       </c>
     </row>
     <row r="56">
@@ -6372,10 +6372,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.6363636363636364</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1.677454265800655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -6390,10 +6390,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.041181818181818</v>
+        <v>2.189941176470589</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1174566328738425</v>
+        <v>0.0002425356250363063</v>
       </c>
     </row>
     <row r="58">
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.3842727272727272</v>
+        <v>0.3109999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05783653633357495</v>
+        <v>0.004123105625617665</v>
       </c>
     </row>
     <row r="59">
@@ -6426,10 +6426,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4.549863636363636</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5125802418441471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6444,10 +6444,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9.038727272727272</v>
+        <v>8.586470588235294</v>
       </c>
       <c r="D60" t="n">
-        <v>0.157130574096887</v>
+        <v>0.1363942436684276</v>
       </c>
     </row>
     <row r="61">
@@ -6462,10 +6462,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1608.474227272727</v>
+        <v>1397.164058823529</v>
       </c>
       <c r="D61" t="n">
-        <v>56.73644030236636</v>
+        <v>36.86423637224595</v>
       </c>
     </row>
     <row r="62">
@@ -6480,10 +6480,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.099545454545455</v>
+        <v>1.793294117647059</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2371781984826975</v>
+        <v>0.0422503915749345</v>
       </c>
     </row>
     <row r="63">
@@ -6498,10 +6498,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>18.48931818181818</v>
+        <v>16.40958823529412</v>
       </c>
       <c r="D63" t="n">
-        <v>1.501642604945336</v>
+        <v>0.5000720021686286</v>
       </c>
     </row>
     <row r="64">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.259630878670909</v>
+        <v>2.134234634775294</v>
       </c>
       <c r="D64" t="n">
-        <v>0.05162447220628688</v>
+        <v>0.01975816083621755</v>
       </c>
     </row>
     <row r="65">
@@ -6534,10 +6534,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2.24488130515</v>
+        <v>2.131571642039412</v>
       </c>
       <c r="D65" t="n">
-        <v>0.04660216378899112</v>
+        <v>0.02197548028388662</v>
       </c>
     </row>
     <row r="66">
@@ -6552,10 +6552,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.022697858485425</v>
+        <v>0.9087437759834698</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04101738239744516</v>
+        <v>0.02113073412388175</v>
       </c>
     </row>
     <row r="67">
@@ -6570,10 +6570,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>40.57945454545455</v>
+        <v>31.4484705882353</v>
       </c>
       <c r="D67" t="n">
-        <v>45.8431385131508</v>
+        <v>43.94499534235617</v>
       </c>
     </row>
     <row r="68">
@@ -6588,10 +6588,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>200.0454545454545</v>
+        <v>251.0882352941177</v>
       </c>
       <c r="D68" t="n">
-        <v>230.8140309494136</v>
+        <v>295.5658891904497</v>
       </c>
     </row>
     <row r="69">
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.8673650568181818</v>
+        <v>1.336741727941176</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1801357039213181</v>
+        <v>0.1021244846912989</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/cluster_features.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/cluster_features.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster 1_Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster 3_Data" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster 4_Data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster 2_Data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Cluster 1_Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cluster 3_Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Cluster 4_Data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cluster 2_Data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
